--- a/DOM_Banner/output/dept_banner/Michael Insel_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Michael Insel_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Cardiovascular and Respiratory Sciences - Sapienza University of Rome, Italy; Department of Medicine, Division of Pulmonary and Critical Care, University of Arizona, Tucson, Arizona; Department of Cardiology, Hammersmith Hospital, Imperial College Health Care NHS Trust, London, UK; Department of Cardiology, Hammersmith Hospital, Imperial College Health Care NHS Trust, London, UK; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy; Department of Public Health and Infectious Diseases, Sapienza University of Rome, Rome, Italy; Department of Medicine, Division of Pulmonary and Critical Care, University of Arizona, Tucson, Arizona; Translational and Regenerative Medicine, University of Arizona, Tucson, Arizona; Respiratory Unit, ASST Santi Paolo e Carlo, San Paolo Hospital, Department of Health, Sciences, University of Milan, Milan, Italy; Respiratory Unit, ASST Santi Paolo e Carlo, San Paolo Hospital, Department of Health, Sciences, University of Milan, Milan, Italy; Department of Medicine, Division of Pulmonary and Critical Care, University of Arizona, Tucson, Arizona; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy; Department of Cardiovascular and Respiratory Sciences, Sapienza University of Rome, Rome, Italy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220844490</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Incremental value of cardiopulmonary exercise testing in intermediate-risk pulmonary arterial hypertension</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Journal of Heart and Lung Transplantation</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.healun.2022.02.021</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35414469</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.healun.2022.02.021</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Medicine University of Arizona Tucson AZ; Department of Bioengineering and Cardiology, UC Denver Medical Campus, Denver, CO; Division of Pulmonary, Critical Care, Sleep, and Allergy Medicine, University of Arizona, Tucson, AZ; Division of Pulmonary, Critical Care, Sleep, and Allergy Medicine, University of Arizona, Tucson, AZ; BIO5 Institute, Center of Biostatistics and Informatics, University of Arizona, Tucson, AZ; Division of Cardiology, Department of Medicine, Medical University of South Carolina, Charleston, SC; Division of Pulmonary, Critical Care, Sleep, and Allergy Medicine, University of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3207081941</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>The Right Ventricular-Pulmonary Arterial Coupling and Diastolic Function Response to Therapy in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2021.09.040</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34637777</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2021.09.040</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Asthma and Airway Disease Research Center, Tucson, Arizona, USA; Asthma and Airway Disease Research Center, Tucson, Arizona, USA; Asthma and Airway Disease Research Center, Tucson, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Asthma and Airway Disease Research Center, Tucson, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Asthma and Airway Disease Research Center, Tucson, Arizona, USA; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225813833</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>CC16 Deficiency in the Context of Early-Life &lt;i&gt;Mycoplasma pneumoniae&lt;/i&gt; Infection Results in Augmented Airway Responses in Adult Mice</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-02-17</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Infection and Immunity</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>American Society for Microbiology</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1128/iai.00548-21</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34780280</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1128/iai.00548-21</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,24 +713,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Internal Medicine, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225309819</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Oxygen Utilization as a Primary Mediator of Age-Related Functional Decline in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,14 +738,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3045</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3045</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,24 +800,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Pulmonary Critical Care Department, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care Medicine, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; University of Arizona Hospital, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225320154</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>To Drain or Not to Drain: Hemodynamic Characterization of Tamponade in PAH</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,14 +825,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States; Medicine, University of Arizona, Tucson, AZ, United States; Division of Cardiology, University of Arizona, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225321648</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Phenotypic Heterogeneity in WSPH Group 1 PAH Is Explained by Differences in Peripheral Oxygen Extraction</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,14 +912,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3044</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a3044</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Univ of Arizona, Tucson, AZ; Somerville, MA; Univ of Arizona, Tucson, AZ; Univ of Arizona COM Tucson, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; Tucson, AZ; Univ of Arizona, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; The Univ of Arizona, Tucson, AZ; Univ of Arizona Hosp, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380795756</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Abstract 14581: Massive Sinus of Valsalva Aneurysm With Rupture Into the Right Atrium</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
